--- a/trajectory/management/commands/WayPoints/WayPoints.xlsx
+++ b/trajectory/management/commands/WayPoints/WayPoints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11473,6 +11473,710 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>AURANGABAD</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>N19°51'39.95"</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>E075°24'18.90"</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>DUBOX</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>N20°22'15.00"</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>E076°49'56.00"</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>INTIL</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>N26°27'51.00"</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>E076°32'40.99"</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/trajectory/management/commands/WayPoints/WayPoints.xlsx
+++ b/trajectory/management/commands/WayPoints/WayPoints.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="WayPoints" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F367"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RESPE</t>
+          <t>AXIRI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N35°35'30.56"</t>
+          <t>N20°26'24.00"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>W084°55'12.31"</t>
+          <t>W099°04'21.99"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SWAPP</t>
+          <t>UDMAN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N36°36'49.78"</t>
+          <t>N21°17'20.99"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>W085°10'56.04"</t>
+          <t>W099°32'36.99"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IIU</t>
+          <t>TAKSO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N38°06'12.47"</t>
+          <t>N21°35'19.99"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W085°34'38.77"</t>
+          <t>W099°42'39.99"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MAIZE</t>
+          <t>ULUAS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>N38°28'28.30"</t>
+          <t>N21°50'02.00"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>W086°00'57.39"</t>
+          <t>W100°09'19.99"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HONOS</t>
+          <t>AVPUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>N38°34'19.24"</t>
+          <t>N22°02'44.00"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>W086°07'55.74"</t>
+          <t>W100°32'33.00"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FRIZN</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>N38°42'47.04"</t>
+          <t>N22°15'23.00"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>W086°18'04.78"</t>
+          <t>W100°55'49.52"</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SCOTO</t>
+          <t>KEPLU</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>N39°10'08.93"</t>
+          <t>N22°36'07.00"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>W086°51'16.99"</t>
+          <t>W101°10'56.00"</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>IDEAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>N39°29'20.19"</t>
+          <t>N23°22'50.99"</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W087°14'56.44"</t>
+          <t>W101°45'20.00"</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLANO</t>
+          <t>EMIRA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>N39°36'45.74"</t>
+          <t>N23°35'41.00"</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>W087°28'44.55"</t>
+          <t>W101°54'51.99"</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2228,7 +2228,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NEWMY</t>
+          <t>KATLA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>N39°51'26.22"</t>
+          <t>N24°48'50.00"</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>W087°56'19.21"</t>
+          <t>W102°49'56.99"</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>URTIG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>N40°02'04.30"</t>
+          <t>N25°13'18.99"</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>W088°16'33.81"</t>
+          <t>W103°08'41.00"</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LODGE</t>
+          <t>TRC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>N40°08'35.76"</t>
+          <t>N25°33'50.27"</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>W088°31'34.60"</t>
+          <t>W103°24'30.26"</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MCLEN</t>
+          <t>KITON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>N40°24'18.98"</t>
+          <t>N25°54'17.00"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>W089°08'16.55"</t>
+          <t>W103°40'32.00"</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NINIC</t>
+          <t>ETLEP</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>N40°26'02.03"</t>
+          <t>N26°44'19.00"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>W089°12'19.69"</t>
+          <t>W104°20'15.99"</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MACIN</t>
+          <t>LENEM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>N40°32'27.36"</t>
+          <t>N27°46'25.00"</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>W089°27'33.88"</t>
+          <t>W105°10'35.99"</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PIA</t>
+          <t>CUU</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>N40°40'48.26"</t>
+          <t>N28°42'58.97"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>W089°47'33.90"</t>
+          <t>W105°57'31.43"</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JPAUL</t>
+          <t>SETMA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>N41°15'03.15"</t>
+          <t>N29°07'31.00"</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>W090°10'22.74"</t>
+          <t>W106°03'23.00"</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GENSO</t>
+          <t>BECON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>N41°21'44.35"</t>
+          <t>N31°47'17.58"</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>W090°14'53.18"</t>
+          <t>W106°42'45.17"</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NOWSO</t>
+          <t>RUTER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>N41°31'19.43"</t>
+          <t>N32°17'01.43"</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>W090°21'22.56"</t>
+          <t>W106°53'55.21"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>N41°42'30.77"</t>
+          <t>N33°16'57.00"</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>W090°28'59.92"</t>
+          <t>W107°16'49.96"</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>CURLY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>N41°56'07.89"</t>
+          <t>N35°25'04.75"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>W090°33'24.79"</t>
+          <t>W107°05'32.33"</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DBQ</t>
+          <t>TANER</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>N42°24'05.30"</t>
+          <t>N35°52'05.76"</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>W090°42'32.66"</t>
+          <t>W107°25'42.57"</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CASSY</t>
+          <t>PUMPS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>N42°44'40.73"</t>
+          <t>N36°13'06.73"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>W091°01'44.86"</t>
+          <t>W107°41'35.64"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UKN</t>
+          <t>RSK</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N43°16'48.30"</t>
+          <t>N36°44'54.21"</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>W091°32'14.50"</t>
+          <t>W108°05'56.03"</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GABDE</t>
+          <t>BDROC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>N43°38'50.04"</t>
+          <t>N38°27'03.27"</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>W092°18'26.46"</t>
+          <t>W108°36'19.86"</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RST</t>
+          <t>SINSY</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2755,12 +2755,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N43°46'58.45"</t>
+          <t>N38°47'01.93"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>W092°35'49.05"</t>
+          <t>W108°42'26.75"</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EGUPE</t>
+          <t>JNC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>N43°56'02.36"</t>
+          <t>N39°03'34.43"</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>W092°48'19.54"</t>
+          <t>W108°47'33.26"</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2804,7 +2804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DELZY</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>N44°13'54.94"</t>
+          <t>N40°51'00.93"</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W093°13'16.33"</t>
+          <t>W111°58'54.86"</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BOSOX</t>
+          <t>TWF</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>N42°12'06.79"</t>
+          <t>N42°28'47.46"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>W071°37'39.64"</t>
+          <t>W114°29'22.04"</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GRIPE</t>
+          <t>DNJ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>N42°08'08.87"</t>
+          <t>N44°46'01.60"</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>W071°54'32.47"</t>
+          <t>W116°12'22.55"</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GRAYM</t>
+          <t>BEAMO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>N42°06'04.27"</t>
+          <t>N45°18'51.91"</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>W072°01'53.49"</t>
+          <t>W117°46'39.59"</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WITNY</t>
+          <t>PDT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>N42°02'57.82"</t>
+          <t>N45°41'54.31"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>W072°14'11.96"</t>
+          <t>W118°56'19.35"</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>BOSOX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>N41°56'27.63"</t>
+          <t>N42°12'06.79"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>W072°41'18.88"</t>
+          <t>W071°37'39.64"</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BRISS</t>
+          <t>GRIPE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>N41°42'09.36"</t>
+          <t>N42°08'08.87"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>W073°01'00.15"</t>
+          <t>W071°54'32.47"</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>JUDDS</t>
+          <t>GRAYM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>N41°38'04.82"</t>
+          <t>N42°06'04.27"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>W073°06'29.68"</t>
+          <t>W072°01'53.49"</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOARS</t>
+          <t>WITNY</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N41°30'42.07"</t>
+          <t>N42°02'57.82"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>W073°16'17.77"</t>
+          <t>W072°14'11.96"</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3092,7 +3092,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GREKI</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>N41°28'48.03"</t>
+          <t>N41°56'27.63"</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>W073°18'50.98"</t>
+          <t>W072°41'18.88"</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CMK</t>
+          <t>BRISS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>N41°16'48.33"</t>
+          <t>N41°42'09.36"</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>W073°34'52.78"</t>
+          <t>W073°01'00.15"</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DUEYS</t>
+          <t>JUDDS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N41°09'09.46"</t>
+          <t>N41°38'04.82"</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>W073°47'48.52"</t>
+          <t>W073°06'29.68"</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JERSY</t>
+          <t>SOARS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N40°47'28.99"</t>
+          <t>N41°30'42.07"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>W074°23'58.00"</t>
+          <t>W073°16'17.77"</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SBJ</t>
+          <t>GREKI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N40°34'58.96"</t>
+          <t>N41°28'48.03"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>W074°44'30.45"</t>
+          <t>W073°18'50.98"</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DIRPE</t>
+          <t>CMK</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>N40°28'22.94"</t>
+          <t>N41°16'48.33"</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>W074°59'37.03"</t>
+          <t>W073°34'52.78"</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PTW</t>
+          <t>DUEYS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>N40°13'20.05"</t>
+          <t>N41°09'09.46"</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>W075°33'36.93"</t>
+          <t>W073°47'48.52"</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BYRDD</t>
+          <t>JERSY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>N40°05'31.93"</t>
+          <t>N40°47'28.99"</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>W075°49'07.29"</t>
+          <t>W074°23'58.00"</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HAAGN</t>
+          <t>SBJ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>N39°57'41.39"</t>
+          <t>N40°34'58.96"</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>W076°04'34.32"</t>
+          <t>W074°44'30.45"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PENSY</t>
+          <t>DIRPE</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>N39°54'25.96"</t>
+          <t>N40°28'22.94"</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>W076°10'57.13"</t>
+          <t>W074°59'37.03"</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EMI</t>
+          <t>PTW</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>N39°29'42.02"</t>
+          <t>N40°13'20.05"</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>W076°58'42.85"</t>
+          <t>W075°33'36.93"</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CSN</t>
+          <t>BYRDD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>N38°38'28.32"</t>
+          <t>N40°05'31.93"</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>W077°51'55.79"</t>
+          <t>W075°49'07.29"</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MOL</t>
+          <t>HAAGN</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>N37°54'01.88"</t>
+          <t>N39°57'41.39"</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>W079°06'24.80"</t>
+          <t>W076°04'34.32"</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FLASK</t>
+          <t>PENSY</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>N37°01'03.92"</t>
+          <t>N39°54'25.96"</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>W080°18'58.62"</t>
+          <t>W076°10'57.13"</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>REAVS</t>
+          <t>EMI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3555,12 +3555,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>N36°42'10.99"</t>
+          <t>N39°29'42.02"</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>W080°44'12.03"</t>
+          <t>W076°58'42.85"</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3572,7 +3572,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ODF</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>N34°41'45.14"</t>
+          <t>N38°38'28.32"</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>W083°17'51.58"</t>
+          <t>W077°51'55.79"</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CORCE</t>
+          <t>MOL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>N34°27'34.99"</t>
+          <t>N37°54'01.88"</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>W083°33'10.59"</t>
+          <t>W079°06'24.80"</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MACEY</t>
+          <t>FLASK</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>N34°20'00.25"</t>
+          <t>N37°01'03.92"</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>W083°41'19.08"</t>
+          <t>W080°18'58.62"</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>WOMAC</t>
+          <t>REAVS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>N34°07'48.86"</t>
+          <t>N36°42'10.99"</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>W083°54'20.77"</t>
+          <t>W080°44'12.03"</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LOGEN</t>
+          <t>ODF</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>N33°59'16.98"</t>
+          <t>N34°41'45.14"</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>W084°03'24.43"</t>
+          <t>W083°17'51.58"</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LFK</t>
+          <t>CORCE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>N31°09'44.79"</t>
+          <t>N34°27'34.99"</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>W094°43'00.59"</t>
+          <t>W083°33'10.59"</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3764,7 +3764,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SKKIP</t>
+          <t>MACEY</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N31°14'54.86"</t>
+          <t>N34°20'00.25"</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>W094°39'27.00"</t>
+          <t>W083°41'19.08"</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ADUKE</t>
+          <t>WOMAC</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>N31°52'56.75"</t>
+          <t>N34°07'48.86"</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>W094°12'59.28"</t>
+          <t>W083°54'20.77"</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BERKE</t>
+          <t>LOGEN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>N32°45'18.20"</t>
+          <t>N33°59'16.98"</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>W093°35'50.03"</t>
+          <t>W084°03'24.43"</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3860,7 +3860,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CISAR</t>
+          <t>LFK</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>N33°30'42.79"</t>
+          <t>N31°09'44.79"</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>W093°02'54.64"</t>
+          <t>W094°43'00.59"</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WASKO</t>
+          <t>SKKIP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>N34°03'36.47"</t>
+          <t>N31°14'54.86"</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>W092°38'38.02"</t>
+          <t>W094°39'27.00"</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IGLOO</t>
+          <t>ADUKE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>N35°49'06.52"</t>
+          <t>N31°52'56.75"</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>W091°44'11.55"</t>
+          <t>W094°12'59.28"</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3956,7 +3956,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PLIED</t>
+          <t>BERKE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>N36°07'59.54"</t>
+          <t>N32°45'18.20"</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>W091°36'41.40"</t>
+          <t>W093°35'50.03"</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TWRAY</t>
+          <t>CISAR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>N37°36'05.06"</t>
+          <t>N33°30'42.79"</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>W091°00'52.53"</t>
+          <t>W093°02'54.64"</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4020,7 +4020,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>WASKO</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4035,12 +4035,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>N38°51'38.48"</t>
+          <t>N34°03'36.47"</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>W090°28'56.52"</t>
+          <t>W092°38'38.02"</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FARGO</t>
+          <t>IGLOO</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>N39°43'17.26"</t>
+          <t>N35°49'06.52"</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>W089°46'35.07"</t>
+          <t>W091°44'11.55"</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>PLIED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4099,12 +4099,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N39°50'23.03"</t>
+          <t>N36°07'59.54"</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>W089°40'39.84"</t>
+          <t>W091°36'41.40"</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PNT</t>
+          <t>TWRAY</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>N40°49'16.32"</t>
+          <t>N37°36'05.06"</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>W088°44'00.63"</t>
+          <t>W091°00'52.53"</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>JOT</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>N41°32'47.09"</t>
+          <t>N38°51'38.48"</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>W088°19'06.28"</t>
+          <t>W090°28'56.52"</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GILBY</t>
+          <t>FARGO</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>N38°58'23.61"</t>
+          <t>N39°43'17.26"</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>W077°35'20.64"</t>
+          <t>W089°46'35.07"</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MANNE</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>N39°00'14.40"</t>
+          <t>N39°50'23.03"</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>W077°41'13.17"</t>
+          <t>W089°40'39.84"</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4244,7 +4244,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>JASEN</t>
+          <t>PNT</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>N39°03'38.50"</t>
+          <t>N40°49'16.32"</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>W077°52'05.19"</t>
+          <t>W088°44'00.63"</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HOAGE</t>
+          <t>JOT</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>N39°07'42.96"</t>
+          <t>N41°32'47.09"</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>W078°05'12.41"</t>
+          <t>W088°19'06.28"</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TRIXY</t>
+          <t>GILBY</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>N39°08'21.20"</t>
+          <t>N38°58'23.61"</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>W078°07'16.00"</t>
+          <t>W077°35'20.64"</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DRUZZ</t>
+          <t>MANNE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>N39°09'48.28"</t>
+          <t>N39°00'14.40"</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>W078°21'28.71"</t>
+          <t>W077°41'13.17"</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>JASEN</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>N39°13'31.77"</t>
+          <t>N39°03'38.50"</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>W078°59'22.20"</t>
+          <t>W077°52'05.19"</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MOTME</t>
+          <t>HOAGE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4419,12 +4419,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>N39°27'26.47"</t>
+          <t>N39°07'42.96"</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>W079°35'47.23"</t>
+          <t>W078°05'12.41"</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4436,7 +4436,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MGW</t>
+          <t>TRIXY</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>N39°33'24.10"</t>
+          <t>N39°08'21.20"</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>W079°51'37.41"</t>
+          <t>W078°07'16.00"</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TEDDS</t>
+          <t>DRUZZ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>N39°38'18.76"</t>
+          <t>N39°09'48.28"</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>W080°16'34.08"</t>
+          <t>W078°21'28.71"</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BURGS</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>N39°41'54.66"</t>
+          <t>N39°13'31.77"</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>W080°35'10.99"</t>
+          <t>W078°59'22.20"</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4532,7 +4532,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BEALL</t>
+          <t>MOTME</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4547,12 +4547,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>N39°47'06.55"</t>
+          <t>N39°27'26.47"</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>W081°02'35.51"</t>
+          <t>W079°35'47.23"</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HISOM</t>
+          <t>MGW</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>N39°52'35.48"</t>
+          <t>N39°33'24.10"</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>W081°32'13.19"</t>
+          <t>W079°51'37.41"</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MUNOE</t>
+          <t>TEDDS</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>N39°53'42.66"</t>
+          <t>N39°38'18.76"</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>W081°38'22.27"</t>
+          <t>W080°16'34.08"</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ZZV</t>
+          <t>BURGS</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4643,12 +4643,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>N39°56'27.10"</t>
+          <t>N39°41'54.66"</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>W081°53'33.36"</t>
+          <t>W080°35'10.99"</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CINAB</t>
+          <t>BEALL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4675,12 +4675,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>N40°00'52.49"</t>
+          <t>N39°47'06.55"</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>W082°08'04.13"</t>
+          <t>W081°02'35.51"</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>HISOM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>N40°09'03.82"</t>
+          <t>N39°52'35.48"</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>W082°35'17.88"</t>
+          <t>W081°32'13.19"</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TRAKK</t>
+          <t>MUNOE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4739,12 +4739,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>N40°18'32.35"</t>
+          <t>N39°53'42.66"</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>W083°10'17.75"</t>
+          <t>W081°38'22.27"</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>WHETT</t>
+          <t>ZZV</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>N41°09'36.64"</t>
+          <t>N39°56'27.10"</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W086°35'02.93"</t>
+          <t>W081°53'33.36"</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MOPER</t>
+          <t>CINAB</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>N41°25'52.54"</t>
+          <t>N40°00'52.49"</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>W087°47'12.40"</t>
+          <t>W082°08'04.13"</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,7 +4820,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>VORIN</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>N41°32'52.81"</t>
+          <t>N40°09'03.82"</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>W089°20'10.95"</t>
+          <t>W082°35'17.88"</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IOW</t>
+          <t>TRAKK</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>N41°31'08.26"</t>
+          <t>N40°18'32.35"</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>W091°36'47.69"</t>
+          <t>W083°10'17.75"</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DSM</t>
+          <t>WHETT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>N41°26'15.44"</t>
+          <t>N41°09'36.64"</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>W093°38'54.80"</t>
+          <t>W086°35'02.93"</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,7 +4916,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>OBH</t>
+          <t>MOPER</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>N41°22'32.64"</t>
+          <t>N41°25'52.54"</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>W098°21'12.94"</t>
+          <t>W087°47'12.40"</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ELJAY</t>
+          <t>VORIN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4963,12 +4963,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>N41°13'30.37"</t>
+          <t>N41°32'52.81"</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>W101°13'17.26"</t>
+          <t>W089°20'10.95"</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,7 +4980,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>IOW</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4995,12 +4995,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>N41°05'48.00"</t>
+          <t>N41°31'08.26"</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>W102°58'58.80"</t>
+          <t>W091°36'47.69"</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FROGS</t>
+          <t>DSM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>N40°31'12.12"</t>
+          <t>N41°26'15.44"</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>W105°53'41.21"</t>
+          <t>W093°38'54.80"</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EKR</t>
+          <t>OBH</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>N40°04'02.79"</t>
+          <t>N41°22'32.64"</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>W107°55'29.81"</t>
+          <t>W098°21'12.94"</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>ELJAY</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>N39°18'07.96"</t>
+          <t>N41°13'30.37"</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>W112°30'20.00"</t>
+          <t>W101°13'17.26"</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5108,7 +5108,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PAWLY</t>
+          <t>SNY</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>N39°11'49.70"</t>
+          <t>N41°05'48.00"</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>W113°26'23.38"</t>
+          <t>W102°58'58.80"</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MVA</t>
+          <t>FROGS</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5155,12 +5155,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>N38°33'55.07"</t>
+          <t>N40°31'12.12"</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>W118°01'58.27"</t>
+          <t>W105°53'41.21"</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>YESKA</t>
+          <t>EKR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>N61°00'00.78"</t>
+          <t>N40°04'02.79"</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>W149°20'01.84"</t>
+          <t>W107°55'29.81"</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5204,7 +5204,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>REMBY</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>N60°40'00.00"</t>
+          <t>N39°18'07.96"</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>W146°00'00.00"</t>
+          <t>W112°30'20.00"</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5236,7 +5236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>COHIL</t>
+          <t>PAWLY</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>N60°06'31.00"</t>
+          <t>N39°11'49.70"</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>W139°00'00.00"</t>
+          <t>W113°26'23.38"</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GOROV</t>
+          <t>MVA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>N59°18'21.10"</t>
+          <t>N38°33'55.07"</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>W133°00'02.80"</t>
+          <t>W118°01'58.27"</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5300,7 +5300,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>OMLOK</t>
+          <t>YESKA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5315,12 +5315,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>N58°46'45.59"</t>
+          <t>N61°00'00.78"</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>W130°00'00.00"</t>
+          <t>W149°20'01.84"</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BINGA</t>
+          <t>REMBY</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>N57°42'07.09"</t>
+          <t>N60°40'00.00"</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>W125°00'00.00"</t>
+          <t>W146°00'00.00"</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LEPET</t>
+          <t>COHIL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>N56°25'35.90"</t>
+          <t>N60°06'31.00"</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>W120°16'15.72"</t>
+          <t>W139°00'00.00"</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5396,7 +5396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NUBEG</t>
+          <t>GOROV</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5411,12 +5411,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>N54°16'51.69"</t>
+          <t>N59°18'21.10"</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>W113°59'03.32"</t>
+          <t>W133°00'02.80"</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>YWV</t>
+          <t>OMLOK</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5443,12 +5443,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>N52°58'53.00"</t>
+          <t>N58°46'45.59"</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>W110°49'59.79"</t>
+          <t>W130°00'00.00"</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VLN</t>
+          <t>BINGA</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5475,12 +5475,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>N50°40'01.22"</t>
+          <t>N57°42'07.09"</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>W104°53'22.96"</t>
+          <t>W125°00'00.00"</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5492,7 +5492,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MOT</t>
+          <t>LEPET</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5507,12 +5507,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>N48°15'37.20"</t>
+          <t>N56°25'35.90"</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>W101°17'13.44"</t>
+          <t>W120°16'15.72"</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PABIC</t>
+          <t>NUBEG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5539,12 +5539,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>N48°03'07.54"</t>
+          <t>N54°16'51.69"</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>W101°11'54.34"</t>
+          <t>W113°59'03.32"</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HIDEL</t>
+          <t>YWV</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>N48°01'45.05"</t>
+          <t>N52°58'53.00"</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>W101°11'19.40"</t>
+          <t>W110°49'59.79"</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5588,7 +5588,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TERTL</t>
+          <t>VLN</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>N47°34'16.39"</t>
+          <t>N50°40'01.22"</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>W100°59'47.62"</t>
+          <t>W104°53'22.96"</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WASHR</t>
+          <t>MOT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5635,12 +5635,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>N47°18'26.68"</t>
+          <t>N48°15'37.20"</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>W100°53'15.50"</t>
+          <t>W101°17'13.44"</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WILTN</t>
+          <t>PABIC</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5667,12 +5667,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>N47°04'58.09"</t>
+          <t>N48°03'07.54"</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>W100°47'43.84"</t>
+          <t>W101°11'54.34"</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FIKAG</t>
+          <t>HIDEL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>N46°55'20.20"</t>
+          <t>N48°01'45.05"</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>W100°43'48.91"</t>
+          <t>W101°11'19.40"</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BIS</t>
+          <t>TERTL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>N46°45'42.34"</t>
+          <t>N47°34'16.39"</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>W100°39'55.46"</t>
+          <t>W100°59'47.62"</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MOFIT</t>
+          <t>WASHR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5763,12 +5763,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>N46°33'01.37"</t>
+          <t>N47°18'26.68"</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>W100°17'28.81"</t>
+          <t>W100°53'15.50"</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5780,7 +5780,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WISEK</t>
+          <t>WILTN</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5795,12 +5795,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>N46°22'49.35"</t>
+          <t>N47°04'58.09"</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>W099°59'38.99"</t>
+          <t>W100°47'43.84"</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IRIWY</t>
+          <t>FIKAG</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5827,12 +5827,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>N46°03'11.72"</t>
+          <t>N46°55'20.20"</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>W099°25'52.63"</t>
+          <t>W100°43'48.91"</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MUNEF</t>
+          <t>BIS</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>N45°41'21.22"</t>
+          <t>N46°45'42.34"</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>W098°49'04.75"</t>
+          <t>W100°39'55.46"</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>MOFIT</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>N43°38'58.16"</t>
+          <t>N46°33'01.37"</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>W096°46'52.05"</t>
+          <t>W100°17'28.81"</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>EYHUX</t>
+          <t>WISEK</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>N42°26'08.02"</t>
+          <t>N46°22'49.35"</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>W095°01'09.77"</t>
+          <t>W099°59'38.99"</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JAVAS</t>
+          <t>IRIWY</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>N40°45'56.25"</t>
+          <t>N46°03'11.72"</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>W092°47'19.80"</t>
+          <t>W099°25'52.63"</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CHASY</t>
+          <t>MUNEF</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>N40°41'38.25"</t>
+          <t>N45°41'21.22"</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>W092°41'55.11"</t>
+          <t>W098°49'04.75"</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SKBOZ</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6019,12 +6019,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>N40°34'52.20"</t>
+          <t>N43°38'58.16"</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>W092°33'26.15"</t>
+          <t>W096°46'52.05"</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>COLIE</t>
+          <t>EYHUX</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>N40°16'50.12"</t>
+          <t>N42°26'08.02"</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>W092°11'01.93"</t>
+          <t>W095°01'09.77"</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>JAVAS</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>N39°40'20.55"</t>
+          <t>N40°45'56.25"</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>W091°26'35.13"</t>
+          <t>W092°47'19.80"</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PLESS</t>
+          <t>CHASY</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>N37°48'34.48"</t>
+          <t>N40°41'38.25"</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>W088°57'47.48"</t>
+          <t>W092°41'55.11"</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6132,7 +6132,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>SKBOZ</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>N36°08'13.05"</t>
+          <t>N40°34'52.20"</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>W086°41'05.17"</t>
+          <t>W092°33'26.15"</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6164,7 +6164,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SLI</t>
+          <t>COLIE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>N33°46'59.87"</t>
+          <t>N40°16'50.12"</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>W118°03'17.11"</t>
+          <t>W092°11'01.93"</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6196,7 +6196,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AHEIM</t>
+          <t>TWAIN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6211,12 +6211,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>N33°49'13.13"</t>
+          <t>N39°40'20.55"</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>W117°54'43.01"</t>
+          <t>W091°26'35.13"</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6228,7 +6228,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>OLLIE</t>
+          <t>PLESS</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>N33°50'46.55"</t>
+          <t>N37°48'34.48"</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>W117°48'41.00"</t>
+          <t>W088°57'47.48"</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>POXKU</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>N33°51'13.47"</t>
+          <t>N36°08'13.05"</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>W117°46'56.49"</t>
+          <t>W086°41'05.17"</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>EBITE</t>
+          <t>SLI</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6307,12 +6307,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>N33°51'40.73"</t>
+          <t>N33°46'59.87"</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>W117°45'03.23"</t>
+          <t>W118°03'17.11"</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PDZ</t>
+          <t>AHEIM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6339,12 +6339,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>N33°55'06.01"</t>
+          <t>N33°49'13.13"</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>W117°31'47.99"</t>
+          <t>W117°54'43.01"</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6356,7 +6356,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CIVET</t>
+          <t>OLLIE</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>N34°02'03.93"</t>
+          <t>N33°50'46.55"</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>W117°23'27.17"</t>
+          <t>W117°48'41.00"</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RUSTT</t>
+          <t>POXKU</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>N34°02'53.62"</t>
+          <t>N33°51'13.47"</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>W117°14'32.83"</t>
+          <t>W117°46'56.49"</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PIONE</t>
+          <t>EBITE</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>N34°05'40.10"</t>
+          <t>N33°51'40.73"</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>W116°44'19.64"</t>
+          <t>W117°45'03.23"</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GEEYY</t>
+          <t>PDZ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>N34°50'11.79"</t>
+          <t>N33°55'06.01"</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>W091°10'47.67"</t>
+          <t>W117°31'47.99"</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CIVET</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6499,12 +6499,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>N35°00'54.42"</t>
+          <t>N34°02'03.93"</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>W089°58'59.55"</t>
+          <t>W117°23'27.17"</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BLUIT</t>
+          <t>RUSTT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>N47°24'21.36"</t>
+          <t>N34°02'53.62"</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>W120°25'05.51"</t>
+          <t>W117°14'32.83"</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6548,7 +6548,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>EPH</t>
+          <t>PIONE</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6563,12 +6563,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>N47°22'40.50"</t>
+          <t>N34°05'40.10"</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>W119°25'26.41"</t>
+          <t>W116°44'19.64"</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6580,7 +6580,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PECOK</t>
+          <t>GEEYY</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>N44°00'27.67"</t>
+          <t>N34°50'11.79"</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>W085°43'14.71"</t>
+          <t>W091°10'47.67"</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6612,7 +6612,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LEATO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6627,12 +6627,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>N43°43'16.90"</t>
+          <t>N35°00'54.42"</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>W084°31'49.35"</t>
+          <t>W089°58'59.55"</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6644,7 +6644,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>DIRKS</t>
+          <t>BLUIT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6659,12 +6659,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>N43°29'57.42"</t>
+          <t>N47°24'21.36"</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>W083°38'52.95"</t>
+          <t>W120°25'05.51"</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ECK</t>
+          <t>EPH</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6691,12 +6691,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>N43°15'21.18"</t>
+          <t>N47°22'40.50"</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>W082°43'04.54"</t>
+          <t>W119°25'26.41"</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>YXU</t>
+          <t>PECOK</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>N43°02'16.47"</t>
+          <t>N44°00'27.67"</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>W081°08'56.14"</t>
+          <t>W085°43'14.71"</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6740,7 +6740,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LESUB</t>
+          <t>LEATO</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6755,12 +6755,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>N43°01'00.29"</t>
+          <t>N43°43'16.90"</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>W080°32'58.76"</t>
+          <t>W084°31'49.35"</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>DIRKS</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>N42°55'44.38"</t>
+          <t>N43°29'57.42"</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>W078°38'46.82"</t>
+          <t>W083°38'52.95"</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DALEE</t>
+          <t>ECK</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6819,12 +6819,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>N42°45'22.73"</t>
+          <t>N43°15'21.18"</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>W078°18'12.85"</t>
+          <t>W082°43'04.54"</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6836,7 +6836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BURST</t>
+          <t>YXU</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6851,12 +6851,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>N42°31'20.40"</t>
+          <t>N43°02'16.47"</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>W077°50'43.29"</t>
+          <t>W081°08'56.14"</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6868,7 +6868,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HORNE</t>
+          <t>LESUB</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6883,12 +6883,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>N42°23'21.25"</t>
+          <t>N43°01'00.29"</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>W077°35'16.19"</t>
+          <t>W080°32'58.76"</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6900,7 +6900,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>THINK</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>N42°13'43.44"</t>
+          <t>N42°55'44.38"</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>W077°16'49.20"</t>
+          <t>W078°38'46.82"</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6932,7 +6932,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ULW</t>
+          <t>DALEE</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>N42°05'38.95"</t>
+          <t>N42°45'22.73"</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>W077°01'29.30"</t>
+          <t>W078°18'12.85"</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BIPOD</t>
+          <t>BURST</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6979,12 +6979,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>N41°52'41.57"</t>
+          <t>N42°31'20.40"</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>W076°40'04.22"</t>
+          <t>W077°50'43.29"</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TWIIN</t>
+          <t>HORNE</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7011,12 +7011,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>N41°44'57.85"</t>
+          <t>N42°23'21.25"</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>W076°27'25.15"</t>
+          <t>W077°35'16.19"</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7028,7 +7028,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LACIE</t>
+          <t>THINK</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>N41°33'14.95"</t>
+          <t>N42°13'43.44"</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>W076°08'24.38"</t>
+          <t>W077°16'49.20"</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>ULW</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>N41°26'35.68"</t>
+          <t>N42°05'38.95"</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>W075°57'42.12"</t>
+          <t>W077°01'29.30"</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7092,7 +7092,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LVZ</t>
+          <t>BIPOD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>N41°16'22.08"</t>
+          <t>N41°52'41.57"</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>W075°41'22.08"</t>
+          <t>W076°40'04.22"</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BUNKA</t>
+          <t>TWIIN</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7139,12 +7139,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>N39°04'57.32"</t>
+          <t>N41°44'57.85"</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>W087°09'06.58"</t>
+          <t>W076°27'25.15"</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HNB</t>
+          <t>LACIE</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>N38°15'01.75"</t>
+          <t>N41°33'14.95"</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>W086°57'22.30"</t>
+          <t>W076°08'24.38"</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>APALO</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>N38°00'20.59"</t>
+          <t>N41°26'35.68"</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>W086°51'35.27"</t>
+          <t>W075°57'42.12"</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7220,7 +7220,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LOONE</t>
+          <t>LVZ</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7235,12 +7235,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>N37°44'14.43"</t>
+          <t>N41°16'22.08"</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>W086°45'18.02"</t>
+          <t>W075°41'22.08"</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7252,7 +7252,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RENRO</t>
+          <t>DBQ</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7267,12 +7267,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>N37°28'50.53"</t>
+          <t>N42°24'05.30"</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>W086°39'19.25"</t>
+          <t>W090°42'32.66"</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7284,7 +7284,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BWG</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>N36°55'43.46"</t>
+          <t>N41°56'07.89"</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>W086°26'36.36"</t>
+          <t>W090°33'24.79"</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RACEY</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7331,12 +7331,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>N41°25'00.94"</t>
+          <t>N41°42'30.77"</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>W073°11'38.10"</t>
+          <t>W090°28'59.92"</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SORRY</t>
+          <t>NOWSO</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7363,12 +7363,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>N41°28'43.10"</t>
+          <t>N41°31'19.43"</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>W073°01'02.67"</t>
+          <t>W090°21'22.56"</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7380,7 +7380,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>YALER</t>
+          <t>GENSO</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7395,12 +7395,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>N41°30'56.61"</t>
+          <t>N41°21'44.35"</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>W072°54'39.09"</t>
+          <t>W090°14'53.18"</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HFD</t>
+          <t>JPAUL</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7427,12 +7427,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>N41°38'27.97"</t>
+          <t>N41°15'03.15"</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>W072°32'50.70"</t>
+          <t>W090°10'22.74"</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>PIA</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7459,12 +7459,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>N38°04'28.51"</t>
+          <t>N40°40'48.26"</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>W121°00'13.88"</t>
+          <t>W089°47'33.90"</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SEFFY</t>
+          <t>MACIN</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>N51°23'24.47"</t>
+          <t>N40°32'27.36"</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>W107°08'15.94"</t>
+          <t>W089°27'33.88"</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>FUDGY</t>
+          <t>NINIC</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7523,12 +7523,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>N52°13'07.50"</t>
+          <t>N40°26'02.03"</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>W110°00'00.00"</t>
+          <t>W089°12'19.69"</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7540,7 +7540,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>OMROD</t>
+          <t>MCLEN</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7555,12 +7555,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>N53°00'20.11"</t>
+          <t>N40°24'18.98"</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>W113°05'35.92"</t>
+          <t>W089°08'16.55"</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7572,7 +7572,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>LODGE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7587,12 +7587,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>N53°11'08.09"</t>
+          <t>N40°08'35.76"</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>W113°52'00.62"</t>
+          <t>W088°31'34.60"</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>WYLDE</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>N53°36'52.20"</t>
+          <t>N40°02'04.30"</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>W114°53'38.40"</t>
+          <t>W088°16'33.81"</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>YQU</t>
+          <t>NEWMY</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>N55°10'27.15"</t>
+          <t>N39°51'26.22"</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>W119°01'48.74"</t>
+          <t>W087°56'19.21"</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ELTEX</t>
+          <t>BLANO</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7683,12 +7683,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>N56°53'57.14"</t>
+          <t>N39°36'45.74"</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>W125°00'00.00"</t>
+          <t>W087°28'44.55"</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7700,7 +7700,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>KEVPO</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7715,12 +7715,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>N58°01'36.32"</t>
+          <t>N39°29'20.19"</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>W130°00'00.00"</t>
+          <t>W087°14'56.44"</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MITOM</t>
+          <t>BUNKA</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7747,12 +7747,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>N58°19'14.70"</t>
+          <t>N39°04'57.32"</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>W131°32'02.90"</t>
+          <t>W087°09'06.58"</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DEEJA</t>
+          <t>HNB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7779,12 +7779,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>N58°54'08.00"</t>
+          <t>N38°15'01.75"</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>W135°00'00.00"</t>
+          <t>W086°57'22.30"</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7796,7 +7796,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>YAK</t>
+          <t>APALO</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7811,12 +7811,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>N59°30'38.98"</t>
+          <t>N38°00'20.59"</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>W139°38'53.27"</t>
+          <t>W086°51'35.27"</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>KATAT</t>
+          <t>LOONE</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7843,12 +7843,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>N60°15'29.17"</t>
+          <t>N37°44'14.43"</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>W144°42'18.77"</t>
+          <t>W086°45'18.02"</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CASEL</t>
+          <t>RENRO</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>N60°19'52.06"</t>
+          <t>N37°28'50.53"</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>W145°17'54.25"</t>
+          <t>W086°39'19.25"</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7892,7 +7892,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>JOH</t>
+          <t>BWG</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7907,12 +7907,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>N60°28'51.42"</t>
+          <t>N36°55'43.46"</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>W146°35'57.60"</t>
+          <t>W086°26'36.36"</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CREEL</t>
+          <t>RACEY</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>N40°26'50.50"</t>
+          <t>N41°25'00.94"</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>W073°33'10.67"</t>
+          <t>W073°11'38.10"</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>SORRY</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>N40°41'24.17"</t>
+          <t>N41°28'43.10"</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>W072°34'54.89"</t>
+          <t>W073°01'02.67"</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7988,7 +7988,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HTO</t>
+          <t>YALER</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8003,12 +8003,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>N40°55'08.38"</t>
+          <t>N41°30'56.61"</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>W072°19'00.13"</t>
+          <t>W072°54'39.09"</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8020,7 +8020,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PARCH</t>
+          <t>HFD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8035,12 +8035,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>N41°05'57.21"</t>
+          <t>N41°38'27.97"</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>W072°07'14.66"</t>
+          <t>W072°32'50.70"</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8052,7 +8052,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TRAIT</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8067,12 +8067,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>N41°17'04.75"</t>
+          <t>N38°04'28.51"</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>W071°55'03.35"</t>
+          <t>W121°00'13.88"</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8084,7 +8084,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>SEFFY</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>N41°43'27.63"</t>
+          <t>N51°23'24.47"</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>W071°25'46.70"</t>
+          <t>W107°08'15.94"</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>FUDGY</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,12 +8131,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>N42°21'26.82"</t>
+          <t>N52°13'07.50"</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>W070°59'22.37"</t>
+          <t>W110°00'00.00"</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>COPLY</t>
+          <t>OMROD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>N42°29'52.21"</t>
+          <t>N53°00'20.11"</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>W070°33'28.56"</t>
+          <t>W113°05'35.92"</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SCUPP</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8195,12 +8195,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>N42°36'11.01"</t>
+          <t>N53°11'08.09"</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>W070°13'49.34"</t>
+          <t>W113°52'00.62"</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CANAL</t>
+          <t>WYLDE</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,12 +8227,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>N42°40'08.51"</t>
+          <t>N53°36'52.20"</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>W070°01'21.75"</t>
+          <t>W114°53'38.40"</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8244,7 +8244,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TUSKY</t>
+          <t>YQU</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,12 +8259,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>N43°33'53.99"</t>
+          <t>N55°10'27.15"</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>W067°00'00.00"</t>
+          <t>W119°01'48.74"</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8276,7 +8276,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>OMSAT</t>
+          <t>ELTEX</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,12 +8291,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>N47°00'00.00"</t>
+          <t>N56°53'57.14"</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>W052°00'00.00"</t>
+          <t>W125°00'00.00"</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>47N050W</t>
+          <t>KEVPO</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,12 +8323,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>N47°30'00.00"</t>
+          <t>N58°01'36.32"</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>W050°00'00.00"</t>
+          <t>W130°00'00.00"</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8340,7 +8340,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>49N040W</t>
+          <t>MITOM</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>N49°30'00.00"</t>
+          <t>N58°19'14.70"</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>W040°00'00.00"</t>
+          <t>W131°32'02.90"</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8372,7 +8372,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>51N030W</t>
+          <t>DEEJA</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8387,12 +8387,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>N51°30'00.00"</t>
+          <t>N58°54'08.00"</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>W030°00'00.00"</t>
+          <t>W135°00'00.00"</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>52N020W</t>
+          <t>YAK</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8419,12 +8419,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>N52°30'00.00"</t>
+          <t>N59°30'38.98"</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>W020°00'00.00"</t>
+          <t>W139°38'53.27"</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8436,7 +8436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>LIMRI</t>
+          <t>KATAT</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N60°15'29.17"</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>W015°00'00.00"</t>
+          <t>W144°42'18.77"</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8468,7 +8468,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>XETBO</t>
+          <t>CASEL</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8483,12 +8483,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N60°19'52.06"</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>W014°00'00.00"</t>
+          <t>W145°17'54.25"</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DOLIP</t>
+          <t>JOH</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8515,12 +8515,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N60°28'51.42"</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>W012°00'00.00"</t>
+          <t>W146°35'57.60"</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8532,7 +8532,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LINRA</t>
+          <t>CREEL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>N51°34'47.00"</t>
+          <t>N40°26'50.50"</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>W010°01'55.99"</t>
+          <t>W073°33'10.67"</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8564,7 +8564,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>LESLU</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>N51°00'00.00"</t>
+          <t>N40°41'24.17"</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>W008°00'00.00"</t>
+          <t>W072°34'54.89"</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>INSUN</t>
+          <t>HTO</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8611,12 +8611,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>N50°23'43.00"</t>
+          <t>N40°55'08.38"</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>W006°19'23.99"</t>
+          <t>W072°19'00.13"</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>LND</t>
+          <t>PARCH</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8643,12 +8643,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>N50°08'10.99"</t>
+          <t>N41°05'57.21"</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>W005°38'13.00"</t>
+          <t>W072°07'14.66"</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8660,7 +8660,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>NAKID</t>
+          <t>TRAIT</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>N49°42'54.00"</t>
+          <t>N41°17'04.75"</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>W004°37'22.99"</t>
+          <t>W071°55'03.35"</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ANNET</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8707,12 +8707,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>N49°39'04.99"</t>
+          <t>N41°43'27.63"</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>W004°00'05.00"</t>
+          <t>W071°25'46.70"</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8724,7 +8724,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>UVSUV</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8739,12 +8739,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>N49°29'16.99"</t>
+          <t>N42°21'26.82"</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>W001°40'27.99"</t>
+          <t>W070°59'22.37"</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8756,7 +8756,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>INGOR</t>
+          <t>COPLY</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8771,12 +8771,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>N49°21'52.00"</t>
+          <t>N42°29'52.21"</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>W000°15'00.00"</t>
+          <t>W070°33'28.56"</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>LUKIP</t>
+          <t>SCUPP</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8803,12 +8803,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>N49°18'56.99"</t>
+          <t>N42°36'11.01"</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>E000°29'46.99"</t>
+          <t>W070°13'49.34"</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8820,7 +8820,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ERIXU</t>
+          <t>CANAL</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>N48°05'00.00"</t>
+          <t>N42°40'08.51"</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>E002°15'35.00"</t>
+          <t>W070°01'21.75"</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -8852,7 +8852,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ARKIP</t>
+          <t>TUSKY</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8867,12 +8867,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>N47°37'59.99"</t>
+          <t>N43°33'53.99"</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>E002°02'10.99"</t>
+          <t>W067°00'00.00"</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BALAN</t>
+          <t>OMSAT</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8899,12 +8899,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>N46°30'57.99"</t>
+          <t>N47°00'00.00"</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>E001°02'00.00"</t>
+          <t>W052°00'00.00"</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8916,7 +8916,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FOUCO</t>
+          <t>47N050W</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8931,12 +8931,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>N45°45'16.99"</t>
+          <t>N47°30'00.00"</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>E000°28'49.99"</t>
+          <t>W050°00'00.00"</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8948,7 +8948,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>OSMOB</t>
+          <t>49N040W</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8963,12 +8963,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>N44°38'57.00"</t>
+          <t>N49°30'00.00"</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>W000°20'18.00"</t>
+          <t>W040°00'00.00"</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BIDAC</t>
+          <t>51N030W</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -8995,12 +8995,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>N43°25'01.99"</t>
+          <t>N51°30'00.00"</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>W001°08'08.00"</t>
+          <t>W030°00'00.00"</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9012,7 +9012,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ARVID</t>
+          <t>52N020W</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>N43°04'33.99"</t>
+          <t>N52°30'00.00"</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>W001°27'53.00"</t>
+          <t>W020°00'00.00"</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9044,7 +9044,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PPN</t>
+          <t>LIMRI</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,12 +9059,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>N42°44'02.00"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>W001°42'07.00"</t>
+          <t>W015°00'00.00"</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>NOLSA</t>
+          <t>XETBO</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9091,12 +9091,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>N42°25'39.00"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>W001°54'27.00"</t>
+          <t>W014°00'00.00"</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9108,7 +9108,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ALEPO</t>
+          <t>DOLIP</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>N42°20'36.99"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>W001°57'48.00"</t>
+          <t>W012°00'00.00"</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9140,7 +9140,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>VASUM</t>
+          <t>LINRA</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>N42°16'18.99"</t>
+          <t>N51°34'47.00"</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>W002°00'39.99"</t>
+          <t>W010°01'55.99"</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9172,7 +9172,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GARVU</t>
+          <t>LESLU</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9187,12 +9187,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>N42°10'15.99"</t>
+          <t>N51°00'00.00"</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>W002°04'40.00"</t>
+          <t>W008°00'00.00"</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9204,7 +9204,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BANEV</t>
+          <t>INSUN</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -9219,12 +9219,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>N41°30'08.99"</t>
+          <t>N50°23'43.00"</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>W002°30'52.00"</t>
+          <t>W006°19'23.99"</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9236,7 +9236,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BAN</t>
+          <t>LND</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -9251,12 +9251,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>N41°19'25.00"</t>
+          <t>N50°08'10.99"</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>W002°37'47.00"</t>
+          <t>W005°38'13.00"</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9268,7 +9268,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GOTOR</t>
+          <t>NAKID</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -9283,12 +9283,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>N40°06'38.99"</t>
+          <t>N49°42'54.00"</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>W003°43'28.00"</t>
+          <t>W004°37'22.99"</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9300,7 +9300,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>KAMPO</t>
+          <t>ANNET</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9315,12 +9315,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>N39°44'00.00"</t>
+          <t>N49°39'04.99"</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>W004°03'18.99"</t>
+          <t>W004°00'05.00"</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9332,7 +9332,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MONTO</t>
+          <t>UVSUV</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9347,12 +9347,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>N39°13'17.99"</t>
+          <t>N49°29'16.99"</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>W004°29'49.00"</t>
+          <t>W001°40'27.99"</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MOLIN</t>
+          <t>INGOR</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9379,12 +9379,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>N39°00'00.00"</t>
+          <t>N49°21'52.00"</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>W004°41'08.99"</t>
+          <t>W000°15'00.00"</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9396,7 +9396,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HIJ</t>
+          <t>LUKIP</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9411,12 +9411,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>N38°30'29.00"</t>
+          <t>N49°18'56.99"</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>W005°05'58.99"</t>
+          <t>E000°29'46.99"</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9428,7 +9428,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SVL</t>
+          <t>ERIXU</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9443,12 +9443,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>N37°25'39.00"</t>
+          <t>N48°05'00.00"</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>W005°45'45.00"</t>
+          <t>E002°15'35.00"</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9460,7 +9460,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>ARKIP</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -9475,12 +9475,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>N37°40'07.00"</t>
+          <t>N47°37'59.99"</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>W006°17'53.99"</t>
+          <t>E002°02'10.99"</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9492,7 +9492,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ROSAL</t>
+          <t>BALAN</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9507,12 +9507,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>N38°01'16.99"</t>
+          <t>N46°30'57.99"</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>W007°06'03.99"</t>
+          <t>E001°02'00.00"</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -9524,7 +9524,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>EXONA</t>
+          <t>FOUCO</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>N38°54'15.99"</t>
+          <t>N45°45'16.99"</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>W008°01'00.00"</t>
+          <t>E000°28'49.99"</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -9556,7 +9556,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>OKASI</t>
+          <t>OSMOB</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9571,12 +9571,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>N48°05'00.00"</t>
+          <t>N44°38'57.00"</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>E002°46'40.00"</t>
+          <t>W000°20'18.00"</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9588,7 +9588,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SIQLE</t>
+          <t>BIDAC</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -9603,12 +9603,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>N47°01'15.99"</t>
+          <t>N43°25'01.99"</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>E003°14'12.99"</t>
+          <t>W001°08'08.00"</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9620,7 +9620,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>UTUVA</t>
+          <t>ARVID</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9635,12 +9635,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>N45°51'48.00"</t>
+          <t>N43°04'33.99"</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>E003°29'27.99"</t>
+          <t>W001°27'53.00"</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9652,7 +9652,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>LERGA</t>
+          <t>PPN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>N45°15'26.00"</t>
+          <t>N42°44'02.00"</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>E003°45'00.99"</t>
+          <t>W001°42'07.00"</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -9684,7 +9684,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LATID</t>
+          <t>NOLSA</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9699,12 +9699,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>N14°28'35.00"</t>
+          <t>N42°25'39.00"</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>E077°56'55.99"</t>
+          <t>W001°54'27.00"</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -9716,7 +9716,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>VIRAM</t>
+          <t>ALEPO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9731,12 +9731,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>N15°21'33.99"</t>
+          <t>N42°20'36.99"</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>E078°05'55.00"</t>
+          <t>W001°57'48.00"</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -9748,7 +9748,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BOSGA</t>
+          <t>VASUM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9763,12 +9763,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>N16°12'33.99"</t>
+          <t>N42°16'18.99"</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>E078°14'16.00"</t>
+          <t>W002°00'39.99"</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -9780,7 +9780,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SAKRO</t>
+          <t>GARVU</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>N16°34'00.16"</t>
+          <t>N42°10'15.99"</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>E078°17'47.35"</t>
+          <t>W002°04'40.00"</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -9812,7 +9812,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>BANEV</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>N17°13'40.10"</t>
+          <t>N41°30'08.99"</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>E078°24'20.87"</t>
+          <t>W002°30'52.00"</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -9844,7 +9844,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BUSBO</t>
+          <t>BAN</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -9859,12 +9859,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>N19°14'58.00"</t>
+          <t>N41°19'25.00"</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>E078°07'30.00"</t>
+          <t>W002°37'47.00"</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -9876,7 +9876,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ASIPI</t>
+          <t>GOTOR</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>N20°31'29.99"</t>
+          <t>N40°06'38.99"</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>E077°52'44.99"</t>
+          <t>W003°43'28.00"</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -9908,7 +9908,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>TAMID</t>
+          <t>KAMPO</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9923,12 +9923,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>N20°41'17.99"</t>
+          <t>N39°44'00.00"</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>E077°50'56.00"</t>
+          <t>W004°03'18.99"</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -9940,7 +9940,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>KAMLO</t>
+          <t>MONTO</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9955,12 +9955,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>N20°55'08.99"</t>
+          <t>N39°13'17.99"</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>E077°48'02.99"</t>
+          <t>W004°29'49.00"</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -9972,7 +9972,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>UPTAR</t>
+          <t>MOLIN</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -9987,12 +9987,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>N21°30'42.00"</t>
+          <t>N39°00'00.00"</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>E077°40'54.99"</t>
+          <t>W004°41'08.99"</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10004,7 +10004,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BIGIL</t>
+          <t>HIJ</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10019,12 +10019,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>N22°07'01.99"</t>
+          <t>N38°30'29.00"</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>E077°33'56.00"</t>
+          <t>W005°05'58.99"</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10036,7 +10036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>SVL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N37°25'39.00"</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>W005°45'45.00"</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10068,7 +10068,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PUKES</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10083,12 +10083,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>N24°42'02.00"</t>
+          <t>N37°40'07.00"</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>E077°16'11.99"</t>
+          <t>W006°17'53.99"</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10100,7 +10100,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BUKLO</t>
+          <t>ROSAL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>N25°00'01.00"</t>
+          <t>N38°01'16.99"</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>E077°15'26.00"</t>
+          <t>W007°06'03.99"</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10132,7 +10132,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BAVOX</t>
+          <t>EXONA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>N26°08'30.99"</t>
+          <t>N38°54'15.99"</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>E077°12'55.99"</t>
+          <t>W008°01'00.00"</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10164,7 +10164,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>LANVI</t>
+          <t>OKASI</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -10179,12 +10179,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>N48°18'42.00"</t>
+          <t>N48°05'00.00"</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>E005°47'50.00"</t>
+          <t>E002°46'40.00"</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10196,7 +10196,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>SIQLE</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -10211,12 +10211,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>N48°19'03.99"</t>
+          <t>N47°01'15.99"</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>E006°03'33.99"</t>
+          <t>E003°14'12.99"</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10228,7 +10228,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>OBAKI</t>
+          <t>UTUVA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>N48°21'57.00"</t>
+          <t>N45°51'48.00"</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>E006°25'49.99"</t>
+          <t>E003°29'27.99"</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10260,7 +10260,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>POGOL</t>
+          <t>LERGA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -10275,12 +10275,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>N48°23'56.99"</t>
+          <t>N45°15'26.00"</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>E006°41'36.00"</t>
+          <t>E003°45'00.99"</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10292,7 +10292,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>OBORN</t>
+          <t>LANVI</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -10307,12 +10307,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N48°18'42.00"</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>E007°12'06.00"</t>
+          <t>E005°47'50.00"</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>LUPEN</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -10339,12 +10339,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>N48°26'06.00"</t>
+          <t>N48°19'03.99"</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>E007°44'01.00"</t>
+          <t>E006°03'33.99"</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10356,7 +10356,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>GESLU</t>
+          <t>OBAKI</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10371,12 +10371,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N48°21'57.00"</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>E009°41'19.00"</t>
+          <t>E006°25'49.99"</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10388,7 +10388,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LURER</t>
+          <t>POGOL</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>N48°27'44.99"</t>
+          <t>N48°23'56.99"</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>E010°36'03.00"</t>
+          <t>E006°41'36.00"</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10420,7 +10420,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>LELTA</t>
+          <t>OBORN</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>N48°29'35.00"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>E010°57'18.99"</t>
+          <t>E007°12'06.00"</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10452,7 +10452,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MAH</t>
+          <t>LUPEN</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10467,12 +10467,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>N48°15'48.00"</t>
+          <t>N48°26'06.00"</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>E011°18'42.99"</t>
+          <t>E007°44'01.00"</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10484,7 +10484,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>OTT</t>
+          <t>GESLU</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10499,12 +10499,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>N48°10'48.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>E011°48'59.99"</t>
+          <t>E009°41'19.00"</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10516,7 +10516,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>EBEDA</t>
+          <t>LURER</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -10531,12 +10531,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>N48°09'37.00"</t>
+          <t>N48°27'44.99"</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>E012°07'36.99"</t>
+          <t>E010°36'03.00"</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AMDID</t>
+          <t>LELTA</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>N48°05'49.99"</t>
+          <t>N48°29'35.00"</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>E012°23'49.00"</t>
+          <t>E010°57'18.99"</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10580,7 +10580,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TITIG</t>
+          <t>MAH</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -10595,12 +10595,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>N48°03'31.99"</t>
+          <t>N48°15'48.00"</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>E012°33'34.00"</t>
+          <t>E011°18'42.99"</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10612,7 +10612,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>NEMAL</t>
+          <t>OTT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>N47°55'04.99"</t>
+          <t>N48°10'48.99"</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>E013°29'53.99"</t>
+          <t>E011°48'59.99"</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -10644,7 +10644,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ARSIN</t>
+          <t>EBEDA</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10659,12 +10659,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>N47°34'01.99"</t>
+          <t>N48°09'37.00"</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>E016°45'13.00"</t>
+          <t>E012°07'36.99"</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -10676,7 +10676,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>VAJDI</t>
+          <t>AMDID</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10691,12 +10691,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>N47°22'32.00"</t>
+          <t>N48°05'49.99"</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>E018°17'08.99"</t>
+          <t>E012°23'49.00"</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -10708,7 +10708,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GILEP</t>
+          <t>TITIG</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10723,12 +10723,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>N47°29'00.00"</t>
+          <t>N48°03'31.99"</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>E018°15'32.00"</t>
+          <t>E012°33'34.00"</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10740,7 +10740,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BEGLA</t>
+          <t>NEMAL</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -10755,12 +10755,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>N47°49'50.99"</t>
+          <t>N47°55'04.99"</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>E017°06'52.00"</t>
+          <t>E013°29'53.99"</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -10772,7 +10772,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MOVOS</t>
+          <t>ARSIN</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10787,12 +10787,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>N47°54'40.99"</t>
+          <t>N47°34'01.99"</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>E016°26'13.99"</t>
+          <t>E016°45'13.00"</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10804,7 +10804,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>RENKA</t>
+          <t>VAJDI</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10819,12 +10819,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>N48°35'05.00"</t>
+          <t>N47°22'32.00"</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>E013°30'18.99"</t>
+          <t>E018°17'08.99"</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10836,7 +10836,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>GONBA</t>
+          <t>GILEP</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10851,12 +10851,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>N48°41'16.00"</t>
+          <t>N47°29'00.00"</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>E013°04'33.00"</t>
+          <t>E018°15'32.00"</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -10868,7 +10868,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>STAUB</t>
+          <t>BEGLA</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10883,12 +10883,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>N48°47'09.00"</t>
+          <t>N47°49'50.99"</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>E012°39'28.99"</t>
+          <t>E017°06'52.00"</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -10900,7 +10900,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MAMOR</t>
+          <t>MOVOS</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10915,12 +10915,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>N48°53'08.99"</t>
+          <t>N47°54'40.99"</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>E012°13'19.99"</t>
+          <t>E016°26'13.99"</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -10932,7 +10932,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>UNKUL</t>
+          <t>RENKA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>N49°08'13.99"</t>
+          <t>N48°35'05.00"</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>E011°27'34.99"</t>
+          <t>E013°30'18.99"</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10964,7 +10964,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>UPALA</t>
+          <t>GONBA</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -10979,12 +10979,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>N49°12'52.00"</t>
+          <t>N48°41'16.00"</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>E011°13'16.99"</t>
+          <t>E013°04'33.00"</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10996,7 +10996,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PETIX</t>
+          <t>STAUB</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>N49°20'28.00"</t>
+          <t>N48°47'09.00"</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>E010°45'16.99"</t>
+          <t>E012°39'28.99"</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11028,7 +11028,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>COSJE</t>
+          <t>MAMOR</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -11043,12 +11043,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>N49°43'03.00"</t>
+          <t>N48°53'08.99"</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>E009°56'48.99"</t>
+          <t>E012°13'19.99"</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11060,7 +11060,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>RIDSU</t>
+          <t>UNKUL</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -11075,12 +11075,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>N49°44'56.00"</t>
+          <t>N49°08'13.99"</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>E008°28'48.00"</t>
+          <t>E011°27'34.99"</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11092,7 +11092,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DONAB</t>
+          <t>UPALA</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -11107,12 +11107,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>N49°49'15.99"</t>
+          <t>N49°12'52.00"</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>E008°01'45.00"</t>
+          <t>E011°13'16.99"</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11124,7 +11124,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SOBRA</t>
+          <t>PETIX</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -11139,12 +11139,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>N49°51'38.99"</t>
+          <t>N49°20'28.00"</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>E007°46'32.00"</t>
+          <t>E010°45'16.99"</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11156,7 +11156,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ULKIG</t>
+          <t>COSJE</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>N49°52'11.00"</t>
+          <t>N49°43'03.00"</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>E007°43'09.99"</t>
+          <t>E009°56'48.99"</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11188,7 +11188,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>RUDOT</t>
+          <t>RIDSU</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -11203,12 +11203,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>N49°59'35.99"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>E006°54'16.00"</t>
+          <t>E008°28'48.00"</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11220,7 +11220,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BITBU</t>
+          <t>DONAB</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -11235,12 +11235,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>N49°58'58.99"</t>
+          <t>N49°49'15.99"</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>E006°33'41.99"</t>
+          <t>E008°01'45.00"</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11252,7 +11252,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ASMOX</t>
+          <t>SOBRA</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>N49°54'09.99"</t>
+          <t>N49°51'38.99"</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>E006°16'34.00"</t>
+          <t>E007°46'32.00"</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11284,7 +11284,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>NISIV</t>
+          <t>ULKIG</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -11299,12 +11299,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>N49°53'33.99"</t>
+          <t>N49°52'11.00"</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>E006°14'34.99"</t>
+          <t>E007°43'09.99"</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>DIEKIRCH</t>
+          <t>RUDOT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -11331,12 +11331,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>N49°51'41.00"</t>
+          <t>N49°59'35.99"</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>E006°07'46.99"</t>
+          <t>E006°54'16.00"</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -11348,7 +11348,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>IDOSA</t>
+          <t>BITBU</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -11363,12 +11363,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>N49°44'30.00"</t>
+          <t>N49°58'58.99"</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>E005°52'11.00"</t>
+          <t>E006°33'41.99"</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -11380,7 +11380,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>TOLVU</t>
+          <t>ASMOX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -11395,12 +11395,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>N49°37'30.99"</t>
+          <t>N49°54'09.99"</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>E005°22'18.00"</t>
+          <t>E006°16'34.00"</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -11412,7 +11412,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>RAPOR</t>
+          <t>NISIV</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -11427,12 +11427,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>N49°35'28.99"</t>
+          <t>N49°53'33.99"</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>E005°12'47.00"</t>
+          <t>E006°14'34.99"</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -11444,7 +11444,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>VEDUS</t>
+          <t>DIEKIRCH</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -11459,12 +11459,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>N49°35'41.00"</t>
+          <t>N49°51'41.00"</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>E004°46'52.99"</t>
+          <t>E006°07'46.99"</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -11476,7 +11476,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>IDOSA</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -11491,12 +11491,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>N19°51'39.95"</t>
+          <t>N49°44'30.00"</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>E075°24'18.90"</t>
+          <t>E005°52'11.00"</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -11508,7 +11508,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>DUBOX</t>
+          <t>TOLVU</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -11523,12 +11523,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>N20°22'15.00"</t>
+          <t>N49°37'30.99"</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>E076°49'56.00"</t>
+          <t>E005°22'18.00"</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -11540,7 +11540,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>NINAT</t>
+          <t>RAPOR</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -11555,12 +11555,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>N20°32'48.00"</t>
+          <t>N49°35'28.99"</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>E077°24'56.00"</t>
+          <t>E005°12'47.00"</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -11572,7 +11572,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>NAGPUR</t>
+          <t>VEDUS</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -11587,12 +11587,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>N21°04'53.22"</t>
+          <t>N49°35'41.00"</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>E079°03'22.67"</t>
+          <t>E004°46'52.99"</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -11604,7 +11604,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>TEGIG</t>
+          <t>LATID</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>N21°30'09.00"</t>
+          <t>N14°28'35.00"</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>E080°35'37.00"</t>
+          <t>E077°56'55.99"</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11636,7 +11636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>DOSAT</t>
+          <t>VIRAM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N21°41'32.99"</t>
+          <t>N15°21'33.99"</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>E081°18'24.00"</t>
+          <t>E078°05'55.00"</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>OPONI</t>
+          <t>BOSGA</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11683,12 +11683,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>N21°47'03.00"</t>
+          <t>N16°12'33.99"</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>E081°38'24.00"</t>
+          <t>E078°14'16.00"</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>NIPAD</t>
+          <t>SAKRO</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11715,12 +11715,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N21°52'17.99"</t>
+          <t>N16°34'00.16"</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E081°59'52.99"</t>
+          <t>E078°17'47.35"</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11732,7 +11732,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>OTABA</t>
+          <t>HIA</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11747,12 +11747,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>N22°11'02.99"</t>
+          <t>N17°13'40.10"</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E083°19'22.99"</t>
+          <t>E078°24'20.87"</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>KINKI</t>
+          <t>BUSBO</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11779,12 +11779,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N22°19'17.99"</t>
+          <t>N19°14'58.00"</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E083°55'38.00"</t>
+          <t>E078°07'30.00"</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11796,7 +11796,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>AGROM</t>
+          <t>ASIPI</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>N22°31'44.99"</t>
+          <t>N20°31'29.99"</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E084°49'59.99"</t>
+          <t>E077°52'44.99"</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11828,7 +11828,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>JAMSHEDPUR</t>
+          <t>TAMID</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N22°48'47.47"</t>
+          <t>N20°41'17.99"</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E086°10'26.15"</t>
+          <t>E077°50'56.00"</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11860,7 +11860,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>KAMGU</t>
+          <t>KAMLO</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11875,12 +11875,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>N14°58'31.00"</t>
+          <t>N20°55'08.99"</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E079°25'12.00"</t>
+          <t>E077°48'02.99"</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11892,7 +11892,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>KIKUR</t>
+          <t>UPTAR</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>N15°58'54.99"</t>
+          <t>N21°30'42.00"</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E079°10'32.00"</t>
+          <t>E077°40'54.99"</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -11924,7 +11924,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ANDAV</t>
+          <t>BIGIL</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11939,12 +11939,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N17°28'18.00"</t>
+          <t>N22°07'01.99"</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E078°48'49.00"</t>
+          <t>E077°33'56.00"</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11956,7 +11956,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ALBED</t>
+          <t>BPL</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N18°07'01.99"</t>
+          <t>N23°16'59.73"</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E078°39'23.99"</t>
+          <t>E077°20'11.85"</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>LAROB</t>
+          <t>PUKES</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12003,12 +12003,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N19°10'14.00"</t>
+          <t>N24°42'02.00"</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>E078°23'40.00"</t>
+          <t>E077°16'11.99"</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12020,7 +12020,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SUDEL</t>
+          <t>BUKLO</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12035,12 +12035,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>N19°34'17.99"</t>
+          <t>N25°00'01.00"</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>E078°17'18.99"</t>
+          <t>E077°15'26.00"</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>TASEX</t>
+          <t>BAVOX</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N20°33'54.00"</t>
+          <t>N26°08'30.99"</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>E078°01'36.99"</t>
+          <t>E077°12'55.99"</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12084,7 +12084,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RENAG</t>
+          <t>AURANGABAD</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12099,12 +12099,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>N22°03'12.00"</t>
+          <t>N19°51'39.95"</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>E077°39'32.00"</t>
+          <t>E075°24'18.90"</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12116,7 +12116,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BHOPAL</t>
+          <t>DUBOX</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N20°22'15.00"</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E076°49'56.00"</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12148,36 +12148,644 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
           <t>INTIL</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>WayPoint</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
         <is>
           <t>N26°27'51.00"</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr">
+      <c r="E386" t="inlineStr">
         <is>
           <t>E076°32'40.99"</t>
         </is>
       </c>
-      <c r="F367" t="inlineStr">
+      <c r="F386" t="inlineStr">
         <is>
           <t>Unknown Name</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/trajectory/management/commands/WayPoints/WayPoints.xlsx
+++ b/trajectory/management/commands/WayPoints/WayPoints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11604,7 +11604,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>LATID</t>
+          <t>PINAR</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>N14°28'35.00"</t>
+          <t>N40°58'49.00"</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>E077°56'55.99"</t>
+          <t>W002°35'56.99"</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11636,7 +11636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>VIRAM</t>
+          <t>SEGRE</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N15°21'33.99"</t>
+          <t>N41°01'21.99"</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>E078°05'55.00"</t>
+          <t>W002°22'35.00"</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BOSGA</t>
+          <t>YAKXU</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11683,12 +11683,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>N16°12'33.99"</t>
+          <t>N42°05'55.00"</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>E078°14'16.00"</t>
+          <t>W001°12'45.99"</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SAKRO</t>
+          <t>RONNY</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11715,12 +11715,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N16°34'00.16"</t>
+          <t>N42°25'45.00"</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E078°17'47.35"</t>
+          <t>W000°50'41.00"</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11732,7 +11732,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>TOPTU</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11747,12 +11747,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>N17°13'40.10"</t>
+          <t>N42°47'48.00"</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E078°24'20.87"</t>
+          <t>W000°11'37.00"</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BUSBO</t>
+          <t>BUROX</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11779,12 +11779,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N19°14'58.00"</t>
+          <t>N43°37'49.99"</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E078°07'30.00"</t>
+          <t>E001°15'17.99"</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11796,7 +11796,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ASIPI</t>
+          <t>DITEV</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>N20°31'29.99"</t>
+          <t>N44°29'00.99"</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E077°52'44.99"</t>
+          <t>E002°54'08.99"</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11828,7 +11828,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TAMID</t>
+          <t>NINUN</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N20°41'17.99"</t>
+          <t>N44°46'07.00"</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E077°50'56.00"</t>
+          <t>E003°33'45.99"</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11860,7 +11860,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>KAMLO</t>
+          <t>MEZIN</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11875,12 +11875,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>N20°55'08.99"</t>
+          <t>N45°01'02.00"</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E077°48'02.99"</t>
+          <t>E004°11'45.00"</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11892,7 +11892,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>UPTAR</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>N21°30'42.00"</t>
+          <t>N45°02'01.99"</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E077°40'54.99"</t>
+          <t>E004°14'21.00"</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -11924,7 +11924,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BIGIL</t>
+          <t>OTROT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11939,12 +11939,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N22°07'01.99"</t>
+          <t>N45°06'49.00"</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E077°33'56.00"</t>
+          <t>E004°26'44.00"</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11956,7 +11956,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>ETREK</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N45°11'15.99"</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E004°38'19.00"</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>PUKES</t>
+          <t>LUXAN</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12003,12 +12003,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N24°42'02.00"</t>
+          <t>N45°22'29.00"</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>E077°16'11.99"</t>
+          <t>E005°07'58.00"</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12020,7 +12020,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BUKLO</t>
+          <t>ARKOX</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12035,12 +12035,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>N25°00'01.00"</t>
+          <t>N45°26'23.99"</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>E077°15'26.00"</t>
+          <t>E005°18'27.00"</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BAVOX</t>
+          <t>LATOURDUPIN</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N26°08'30.99"</t>
+          <t>N45°29'19.99"</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>E077°12'55.99"</t>
+          <t>E005°26'21.00"</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12084,7 +12084,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>GIPNO</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12099,12 +12099,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>N19°51'39.95"</t>
+          <t>N45°33'36.00"</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>E075°24'18.90"</t>
+          <t>E005°31'45.00"</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12116,7 +12116,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>DUBOX</t>
+          <t>NAVLA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N20°22'15.00"</t>
+          <t>N45°40'01.99"</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>E076°49'56.00"</t>
+          <t>E005°40'01.00"</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12148,7 +12148,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>NINAT</t>
+          <t>SOPLO</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -12163,12 +12163,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>N20°32'48.00"</t>
+          <t>N45°43'44.00"</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>E077°24'56.00"</t>
+          <t>E005°44'45.00"</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12180,7 +12180,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>NAGPUR</t>
+          <t>OMASI</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -12195,12 +12195,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>N21°04'53.22"</t>
+          <t>N45°54'21.99"</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>E079°03'22.67"</t>
+          <t>E005°58'27.00"</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TEGIG</t>
+          <t>KINNI</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -12227,12 +12227,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>N21°30'09.00"</t>
+          <t>N46°05'19.99"</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>E080°35'37.00"</t>
+          <t>E006°12'42.00"</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12244,7 +12244,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>DOSAT</t>
+          <t>MOLUS</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -12259,12 +12259,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>N21°41'32.99"</t>
+          <t>N46°26'37.99"</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>E081°18'24.00"</t>
+          <t>E006°40'45.99"</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -12276,7 +12276,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>OPONI</t>
+          <t>SOSAL</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -12291,12 +12291,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>N21°47'03.00"</t>
+          <t>N46°33'28.99"</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>E081°38'24.00"</t>
+          <t>E006°53'03.99"</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -12308,7 +12308,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NIPAD</t>
+          <t>TELNO</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -12323,12 +12323,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>N21°52'17.99"</t>
+          <t>N46°46'18.99"</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>E081°59'52.99"</t>
+          <t>E007°16'14.99"</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -12340,7 +12340,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>OTABA</t>
+          <t>KORED</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -12355,12 +12355,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>N22°11'02.99"</t>
+          <t>N46°51'01.99"</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>E083°19'22.99"</t>
+          <t>E007°24'50.99"</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -12372,7 +12372,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>KINKI</t>
+          <t>KONOL</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12387,12 +12387,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>N22°19'17.99"</t>
+          <t>N46°59'43.00"</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>E083°55'38.00"</t>
+          <t>E007°40'50.99"</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -12404,7 +12404,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AGROM</t>
+          <t>BERSU</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -12419,12 +12419,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>N22°31'44.99"</t>
+          <t>N47°08'07.99"</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>E084°49'59.99"</t>
+          <t>E007°56'28.99"</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -12436,7 +12436,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>JAMSHEDPUR</t>
+          <t>SONOM</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -12451,12 +12451,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>N22°48'47.47"</t>
+          <t>N47°47'02.99"</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>E086°10'26.15"</t>
+          <t>E008°53'45.99"</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -12468,7 +12468,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>KAMGU</t>
+          <t>LADOL</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -12483,12 +12483,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>N14°58'31.00"</t>
+          <t>N48°09'59.99"</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>E079°25'12.00"</t>
+          <t>E008°57'11.99"</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -12500,7 +12500,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>KIKUR</t>
+          <t>EMPAX</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -12515,12 +12515,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>N15°58'54.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>E079°10'32.00"</t>
+          <t>E008°59'53.00"</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -12532,7 +12532,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ANDAV</t>
+          <t>NELLI</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>N17°28'18.00"</t>
+          <t>N48°37'40.00"</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>E078°48'49.00"</t>
+          <t>E009°01'24.99"</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -12564,7 +12564,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ALBED</t>
+          <t>KOVAN</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>N18°07'01.99"</t>
+          <t>N48°52'57.00"</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>E078°39'23.99"</t>
+          <t>E009°05'02.99"</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -12596,7 +12596,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>LAROB</t>
+          <t>LUBURG</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -12611,12 +12611,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>N19°10'14.00"</t>
+          <t>N48°54'47.00"</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>E078°23'40.00"</t>
+          <t>E009°20'25.00"</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -12628,7 +12628,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SUDEL</t>
+          <t>OKIBA</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -12643,12 +12643,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>N19°34'17.99"</t>
+          <t>N49°12'52.99"</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>E078°17'18.99"</t>
+          <t>E009°18'57.99"</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -12660,7 +12660,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>TASEX</t>
+          <t>ROLSO</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>N20°33'54.00"</t>
+          <t>N49°21'15.00"</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>E078°01'36.99"</t>
+          <t>E009°18'19.00"</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -12692,7 +12692,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RENAG</t>
+          <t>RIMKI</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>N22°03'12.00"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>E077°39'32.00"</t>
+          <t>E009°21'50.00"</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -12724,7 +12724,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BHOPAL</t>
+          <t>LOHRE</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -12739,12 +12739,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N50°04'01.00"</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E009°29'11.00"</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -12756,30 +12756,1470 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
+          <t>TIKNI</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>N50°24'34.99"</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>E009°52'23.99"</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>GAPLA</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>N50°39'13.99"</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>E010°16'49.99"</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>TAMEB</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>N50°48'28.00"</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>E010°43'48.00"</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>WEMAR</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>N50°58'58.99"</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>E011°15'06.99"</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>RELKO</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>N51°03'34.99"</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>E011°29'01.99"</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>NAMUB</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>N51°07'24.99"</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>E011°40'42.99"</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>NOTGO</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>N51°12'38.00"</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>E011°56'48.00"</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>RUDAK</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>N51°46'42.00"</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>E012°54'57.99"</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>KLASDORF</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>N52°01'10.00"</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>E013°33'47.99"</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>LATID</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>N14°28'35.00"</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>E077°56'55.99"</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>VIRAM</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>N15°21'33.99"</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>E078°05'55.00"</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>BOSGA</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>N16°12'33.99"</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>E078°14'16.00"</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>SAKRO</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>N16°34'00.16"</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>E078°17'47.35"</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>HIA</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>N17°13'40.10"</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>E078°24'20.87"</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>BUSBO</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>N19°14'58.00"</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>E078°07'30.00"</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ASIPI</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>N20°31'29.99"</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>E077°52'44.99"</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>TAMID</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>N20°41'17.99"</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>E077°50'56.00"</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>KAMLO</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>N20°55'08.99"</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>E077°48'02.99"</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>UPTAR</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>N21°30'42.00"</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>E077°40'54.99"</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>BIGIL</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>N22°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>E077°33'56.00"</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>BPL</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>PUKES</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>N24°42'02.00"</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>E077°16'11.99"</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>BUKLO</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>N25°00'01.00"</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>E077°15'26.00"</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>BAVOX</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>N26°08'30.99"</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>E077°12'55.99"</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>AURANGABAD</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>N19°51'39.95"</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>E075°24'18.90"</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>DUBOX</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>N20°22'15.00"</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>E076°49'56.00"</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
           <t>INTIL</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>WayPoint</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
         <is>
           <t>N26°27'51.00"</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>E076°32'40.99"</t>
         </is>
       </c>
-      <c r="F386" t="inlineStr">
+      <c r="F431" t="inlineStr">
         <is>
           <t>Unknown Name</t>
         </is>
